--- a/FixtureBookTest/FixtureTest/Cast/Temp/DataSetValidatorTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DataSetValidatorTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
   <si>
     <t>20</t>
     <phoneticPr fontId="2"/>
@@ -538,6 +538,60 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Table1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Table2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数で指定されたテーブル定義名よりもDataSetの中に含まれるDataTableが少ないと例外が発生する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Table3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数でテーブル名指定をしていない場合にDataSetのテーブル数がE取得データのテーブル数よりも多いと例外が発生する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数でテーブル名指定をしていない場合はDataSetのテーブル名と一致するテーブル定義を使って検証を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明示的にテーブル名指定をしていない場合でDataSetのテーブル名とE取得データのテーブル定義名が一致しなければ定義順で検証する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xxx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1026,9 +1080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG42"/>
+  <dimension ref="B2:AG132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1592,6 +1648,342 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FixtureBookTest/FixtureTest/Cast/Temp/DataSetValidatorTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DataSetValidatorTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>20</t>
     <phoneticPr fontId="2"/>
@@ -569,10 +569,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ccc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>引数でテーブル名指定をしていない場合にDataSetのテーブル数がE取得データのテーブル数よりも多いと例外が発生する</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -592,6 +588,14 @@
   </si>
   <si>
     <t>Xxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yyy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1082,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1696,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1759,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1802,7 +1806,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D86" s="4"/>
     </row>
@@ -1813,12 +1817,12 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="4"/>
     </row>
@@ -1829,43 +1833,43 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D92" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="3" t="s">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="2" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C103" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D103" s="4"/>
     </row>
@@ -1876,59 +1880,59 @@
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D105" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="3" t="s">
+    <row r="112" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="2" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
@@ -1944,7 +1948,7 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
